--- a/results/I3_N5_M2_T30_C100_DepCentral_s3_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1176.25608443679</v>
+        <v>1078.966084436787</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8789999485015869</v>
+        <v>1.135999917984009</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.4900000000032</v>
+        <v>972</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>606.8000000000001</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.995395928987055</v>
+        <v>24.93048325774537</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.889836398081229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>26.38795072015898</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.76429635085182</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.43127983474488</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1004,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1032,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1046,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1060,7 +1060,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>111.054999999999</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>116.7749999999997</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>114.6749999999997</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>115.3349999999986</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>117.75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>60.3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>68.65000000000001</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>64.71999999999979</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>67.17999999999979</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>68.77999999999977</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>140.45</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>132.2850000000025</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>139.2400000000023</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>143.2450000000007</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>144.434999999999</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>100.760000000002</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>100.7050000000017</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>103.6250000000018</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>112.5250000000015</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.0249999999996</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>39.07000000000073</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>38.04000000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.33500000000073</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>47.82500000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>47.45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>140.45</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>132.2850000000025</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>139.2400000000023</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>143.2450000000007</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>144.434999999999</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>111.054999999999</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>116.7749999999997</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>114.6749999999997</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>115.3349999999986</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>117.75</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>40.44999999999999</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>32.28500000000247</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>39.24000000000232</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>43.24500000000074</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>44.43499999999904</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11.05499999999898</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>16.77499999999974</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>14.67499999999971</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>15.3349999999986</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
